--- a/180207047_Azime_Kara.xlsx
+++ b/180207047_Azime_Kara.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azime\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azime\Documents\GitHub\webtek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988CCE89-4855-495B-9C1B-98D308C1098A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA7C89A-E68B-41FC-BFFB-4636449A49CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Yağmur sensörü,step motor</t>
   </si>
   <si>
-    <t>Pır sensörü, buzzer, servo motor</t>
-  </si>
-  <si>
     <t>Mesafe sensörü, servo motor</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">mesafeye göre gelen veri değişecek  10 cm lik bi mesafe için skalayı 100 üzerinden alırsam her bir santim için yüzde 10luk etki sağlarım , 30 için 1 60 için 2 100 3 gönderirisin </t>
+  </si>
+  <si>
+    <t>touch sensörü, buzzer, servo motor</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="A14" sqref="A14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,7 +748,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -776,12 +776,12 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B13" s="13"/>
     </row>
@@ -800,16 +800,16 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -827,28 +827,28 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -858,7 +858,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
